--- a/database/industries/chemical/sharum/balancesheet/quarterly.xlsx
+++ b/database/industries/chemical/sharum/balancesheet/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\chemical\sharum\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\sharum\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A5AC7-79CD-40E7-A7CE-41316B223D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7290"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -66,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-08-29 (2)</t>
-  </si>
-  <si>
     <t>1399-10-29</t>
   </si>
   <si>
@@ -87,7 +85,7 @@
     <t>1400-12-23 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (6)</t>
+    <t>1402-02-27 (7)</t>
   </si>
   <si>
     <t>1401-04-29</t>
@@ -97,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-27</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +448,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -459,7 +460,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -506,6 +507,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -541,6 +559,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,23 +727,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -722,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -754,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -768,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -784,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -800,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -814,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -850,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -886,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -900,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -916,43 +952,43 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>192275</v>
+        <v>144976</v>
       </c>
       <c r="E12" s="15">
-        <v>144976</v>
+        <v>49576</v>
       </c>
       <c r="F12" s="15">
-        <v>49576</v>
+        <v>102669</v>
       </c>
       <c r="G12" s="15">
-        <v>102669</v>
+        <v>230762</v>
       </c>
       <c r="H12" s="15">
-        <v>230762</v>
+        <v>173058</v>
       </c>
       <c r="I12" s="15">
-        <v>173058</v>
+        <v>409973</v>
       </c>
       <c r="J12" s="15">
-        <v>409973</v>
+        <v>237375</v>
       </c>
       <c r="K12" s="15">
-        <v>237375</v>
+        <v>26534</v>
       </c>
       <c r="L12" s="15">
-        <v>26534</v>
+        <v>772906</v>
       </c>
       <c r="M12" s="15">
-        <v>772906</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>708620</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -961,142 +997,142 @@
         <v>162430</v>
       </c>
       <c r="E13" s="11">
-        <v>162430</v>
+        <v>342001</v>
       </c>
       <c r="F13" s="11">
-        <v>342001</v>
+        <v>348701</v>
       </c>
       <c r="G13" s="11">
-        <v>348701</v>
+        <v>1195531</v>
       </c>
       <c r="H13" s="11">
-        <v>1195531</v>
+        <v>931531</v>
       </c>
       <c r="I13" s="11">
-        <v>931531</v>
+        <v>39251</v>
       </c>
       <c r="J13" s="11">
-        <v>39251</v>
+        <v>11200</v>
       </c>
       <c r="K13" s="11">
-        <v>11200</v>
+        <v>13801</v>
       </c>
       <c r="L13" s="11">
         <v>13801</v>
       </c>
       <c r="M13" s="11">
-        <v>13801</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>228177</v>
+        <v>100704</v>
       </c>
       <c r="E14" s="15">
-        <v>100704</v>
+        <v>163778</v>
       </c>
       <c r="F14" s="15">
-        <v>163778</v>
+        <v>439428</v>
       </c>
       <c r="G14" s="15">
-        <v>439428</v>
+        <v>408619</v>
       </c>
       <c r="H14" s="15">
-        <v>408619</v>
+        <v>331996</v>
       </c>
       <c r="I14" s="15">
-        <v>331996</v>
+        <v>1015661</v>
       </c>
       <c r="J14" s="15">
-        <v>1015661</v>
+        <v>747776</v>
       </c>
       <c r="K14" s="15">
-        <v>747776</v>
+        <v>2721067</v>
       </c>
       <c r="L14" s="15">
-        <v>2721067</v>
+        <v>3109146</v>
       </c>
       <c r="M14" s="15">
-        <v>3109146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2012247</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>154227</v>
+        <v>299057</v>
       </c>
       <c r="E15" s="11">
-        <v>299057</v>
+        <v>1529149</v>
       </c>
       <c r="F15" s="11">
-        <v>1529149</v>
+        <v>1619704</v>
       </c>
       <c r="G15" s="11">
-        <v>1619704</v>
+        <v>1779685</v>
       </c>
       <c r="H15" s="11">
-        <v>1779685</v>
+        <v>2340393</v>
       </c>
       <c r="I15" s="11">
-        <v>2340393</v>
+        <v>2043642</v>
       </c>
       <c r="J15" s="11">
-        <v>2043642</v>
+        <v>2999307</v>
       </c>
       <c r="K15" s="11">
-        <v>2999307</v>
+        <v>2919839</v>
       </c>
       <c r="L15" s="11">
-        <v>2919839</v>
+        <v>2354610</v>
       </c>
       <c r="M15" s="11">
-        <v>2354610</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4267680</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>250292</v>
+        <v>637714</v>
       </c>
       <c r="E16" s="15">
-        <v>637714</v>
+        <v>459481</v>
       </c>
       <c r="F16" s="15">
-        <v>459481</v>
+        <v>189291</v>
       </c>
       <c r="G16" s="15">
-        <v>189291</v>
+        <v>562376</v>
       </c>
       <c r="H16" s="15">
-        <v>562376</v>
+        <v>395868</v>
       </c>
       <c r="I16" s="15">
-        <v>395868</v>
+        <v>277476</v>
       </c>
       <c r="J16" s="15">
-        <v>277476</v>
+        <v>524765</v>
       </c>
       <c r="K16" s="15">
-        <v>524765</v>
+        <v>498859</v>
       </c>
       <c r="L16" s="15">
-        <v>498859</v>
+        <v>160654</v>
       </c>
       <c r="M16" s="15">
-        <v>160654</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>244440</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1132,43 +1168,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>987401</v>
+        <v>1344881</v>
       </c>
       <c r="E18" s="17">
-        <v>1344881</v>
+        <v>2543985</v>
       </c>
       <c r="F18" s="17">
-        <v>2543985</v>
+        <v>2699793</v>
       </c>
       <c r="G18" s="17">
-        <v>2699793</v>
+        <v>4176973</v>
       </c>
       <c r="H18" s="17">
-        <v>4176973</v>
+        <v>4172846</v>
       </c>
       <c r="I18" s="17">
-        <v>4172846</v>
+        <v>3786003</v>
       </c>
       <c r="J18" s="17">
-        <v>3786003</v>
+        <v>4520423</v>
       </c>
       <c r="K18" s="17">
-        <v>4520423</v>
+        <v>6180100</v>
       </c>
       <c r="L18" s="17">
-        <v>6180100</v>
+        <v>6411117</v>
       </c>
       <c r="M18" s="17">
-        <v>6411117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7244187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1204,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1213,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>2034</v>
       </c>
       <c r="F20" s="15">
         <v>2034</v>
       </c>
       <c r="G20" s="15">
-        <v>2034</v>
+        <v>2583</v>
       </c>
       <c r="H20" s="15">
         <v>2583</v>
@@ -1228,10 +1264,10 @@
         <v>2583</v>
       </c>
       <c r="J20" s="15">
-        <v>2583</v>
+        <v>2632</v>
       </c>
       <c r="K20" s="15">
-        <v>2632</v>
+        <v>632</v>
       </c>
       <c r="L20" s="15">
         <v>632</v>
@@ -1240,7 +1276,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1276,43 +1312,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>709911</v>
+        <v>674869</v>
       </c>
       <c r="E22" s="15">
-        <v>674869</v>
+        <v>723354</v>
       </c>
       <c r="F22" s="15">
-        <v>723354</v>
+        <v>1159538</v>
       </c>
       <c r="G22" s="15">
-        <v>1159538</v>
+        <v>774356</v>
       </c>
       <c r="H22" s="15">
-        <v>774356</v>
+        <v>837201</v>
       </c>
       <c r="I22" s="15">
-        <v>837201</v>
+        <v>1016417</v>
       </c>
       <c r="J22" s="15">
-        <v>1016417</v>
+        <v>989528</v>
       </c>
       <c r="K22" s="15">
-        <v>989528</v>
+        <v>1079595</v>
       </c>
       <c r="L22" s="15">
-        <v>1079595</v>
+        <v>1322700</v>
       </c>
       <c r="M22" s="15">
-        <v>1322700</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2522910</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1321,34 +1357,34 @@
         <v>4564</v>
       </c>
       <c r="E23" s="11">
+        <v>4737</v>
+      </c>
+      <c r="F23" s="11">
         <v>4564</v>
       </c>
-      <c r="F23" s="11">
-        <v>4737</v>
-      </c>
       <c r="G23" s="11">
+        <v>4693</v>
+      </c>
+      <c r="H23" s="11">
         <v>4564</v>
       </c>
-      <c r="H23" s="11">
-        <v>4693</v>
-      </c>
       <c r="I23" s="11">
+        <v>4650</v>
+      </c>
+      <c r="J23" s="11">
         <v>4564</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
+        <v>4607</v>
+      </c>
+      <c r="L23" s="11">
         <v>4650</v>
       </c>
-      <c r="K23" s="11">
+      <c r="M23" s="11">
         <v>4564</v>
       </c>
-      <c r="L23" s="11">
-        <v>4607</v>
-      </c>
-      <c r="M23" s="11">
-        <v>4650</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1384,7 +1420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1420,79 +1456,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>714475</v>
+        <v>679433</v>
       </c>
       <c r="E26" s="17">
-        <v>679433</v>
+        <v>730125</v>
       </c>
       <c r="F26" s="17">
-        <v>730125</v>
+        <v>1166136</v>
       </c>
       <c r="G26" s="17">
-        <v>1166136</v>
+        <v>781632</v>
       </c>
       <c r="H26" s="17">
-        <v>781632</v>
+        <v>844348</v>
       </c>
       <c r="I26" s="17">
-        <v>844348</v>
+        <v>1023650</v>
       </c>
       <c r="J26" s="17">
-        <v>1023650</v>
+        <v>996724</v>
       </c>
       <c r="K26" s="17">
-        <v>996724</v>
+        <v>1084834</v>
       </c>
       <c r="L26" s="17">
-        <v>1084834</v>
+        <v>1327982</v>
       </c>
       <c r="M26" s="17">
-        <v>1327982</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2528106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>1701876</v>
+        <v>2024314</v>
       </c>
       <c r="E27" s="19">
-        <v>2024314</v>
+        <v>3274110</v>
       </c>
       <c r="F27" s="19">
-        <v>3274110</v>
+        <v>3865929</v>
       </c>
       <c r="G27" s="19">
-        <v>3865929</v>
+        <v>4958605</v>
       </c>
       <c r="H27" s="19">
-        <v>4958605</v>
+        <v>5017194</v>
       </c>
       <c r="I27" s="19">
-        <v>5017194</v>
+        <v>4809653</v>
       </c>
       <c r="J27" s="19">
-        <v>4809653</v>
+        <v>5517147</v>
       </c>
       <c r="K27" s="19">
-        <v>5517147</v>
+        <v>7264934</v>
       </c>
       <c r="L27" s="19">
-        <v>7264934</v>
+        <v>7739099</v>
       </c>
       <c r="M27" s="19">
-        <v>7739099</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9772293</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1508,43 +1544,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>343277</v>
+        <v>493176</v>
       </c>
       <c r="E29" s="15">
-        <v>493176</v>
+        <v>1800119</v>
       </c>
       <c r="F29" s="15">
-        <v>1800119</v>
+        <v>2257398</v>
       </c>
       <c r="G29" s="15">
-        <v>2257398</v>
+        <v>2027854</v>
       </c>
       <c r="H29" s="15">
-        <v>2027854</v>
+        <v>1468187</v>
       </c>
       <c r="I29" s="15">
-        <v>1468187</v>
+        <v>973521</v>
       </c>
       <c r="J29" s="15">
-        <v>973521</v>
+        <v>832493</v>
       </c>
       <c r="K29" s="15">
-        <v>832493</v>
+        <v>1235102</v>
       </c>
       <c r="L29" s="15">
-        <v>1235102</v>
+        <v>922068</v>
       </c>
       <c r="M29" s="15">
-        <v>922068</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1491363</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1580,79 +1616,79 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>70519</v>
+        <v>135794</v>
       </c>
       <c r="E31" s="15">
-        <v>135794</v>
+        <v>68615</v>
       </c>
       <c r="F31" s="15">
-        <v>68615</v>
+        <v>29645</v>
       </c>
       <c r="G31" s="15">
-        <v>29645</v>
+        <v>56956</v>
       </c>
       <c r="H31" s="15">
-        <v>56956</v>
+        <v>272666</v>
       </c>
       <c r="I31" s="15">
-        <v>272666</v>
+        <v>136078</v>
       </c>
       <c r="J31" s="15">
-        <v>136077</v>
+        <v>96538</v>
       </c>
       <c r="K31" s="15">
-        <v>96538</v>
+        <v>141639</v>
       </c>
       <c r="L31" s="15">
-        <v>141639</v>
+        <v>83296</v>
       </c>
       <c r="M31" s="15">
-        <v>83296</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>200353</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>24497</v>
+        <v>3831</v>
       </c>
       <c r="E32" s="11">
-        <v>3831</v>
+        <v>27412</v>
       </c>
       <c r="F32" s="11">
-        <v>27412</v>
+        <v>47377</v>
       </c>
       <c r="G32" s="11">
-        <v>47377</v>
+        <v>72906</v>
       </c>
       <c r="H32" s="11">
-        <v>72906</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
-        <v>0</v>
+        <v>68882</v>
       </c>
       <c r="J32" s="11">
-        <v>68882</v>
+        <v>73726</v>
       </c>
       <c r="K32" s="11">
-        <v>73726</v>
+        <v>71760</v>
       </c>
       <c r="L32" s="11">
-        <v>71760</v>
+        <v>300337</v>
       </c>
       <c r="M32" s="11">
-        <v>300337</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>86512</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1661,34 +1697,34 @@
         <v>180000</v>
       </c>
       <c r="E33" s="15">
-        <v>180000</v>
+        <v>24624</v>
       </c>
       <c r="F33" s="15">
-        <v>24624</v>
+        <v>23939</v>
       </c>
       <c r="G33" s="15">
-        <v>23939</v>
+        <v>271492</v>
       </c>
       <c r="H33" s="15">
-        <v>271492</v>
+        <v>123845</v>
       </c>
       <c r="I33" s="15">
-        <v>123845</v>
+        <v>71580</v>
       </c>
       <c r="J33" s="15">
-        <v>71580</v>
+        <v>341523</v>
       </c>
       <c r="K33" s="15">
-        <v>341523</v>
+        <v>340829</v>
       </c>
       <c r="L33" s="15">
-        <v>340829</v>
+        <v>119801</v>
       </c>
       <c r="M33" s="15">
-        <v>119801</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10306</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1703,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G34" s="11">
-        <v>0</v>
+        <v>1024658</v>
       </c>
       <c r="H34" s="11">
-        <v>1024658</v>
+        <v>1351920</v>
       </c>
       <c r="I34" s="11">
-        <v>1351920</v>
+        <v>1769990</v>
       </c>
       <c r="J34" s="11">
-        <v>1769990</v>
+        <v>2464357</v>
       </c>
       <c r="K34" s="11">
-        <v>2464357</v>
+        <v>3343308</v>
       </c>
       <c r="L34" s="11">
-        <v>3343308</v>
+        <v>3742690</v>
       </c>
       <c r="M34" s="11">
-        <v>3742690</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5246746</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1760,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1796,43 +1832,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>618293</v>
+        <v>812801</v>
       </c>
       <c r="E37" s="17">
-        <v>812801</v>
+        <v>1920770</v>
       </c>
       <c r="F37" s="17">
-        <v>1920770</v>
+        <v>2358359</v>
       </c>
       <c r="G37" s="17">
-        <v>2358359</v>
+        <v>3453866</v>
       </c>
       <c r="H37" s="17">
-        <v>3453866</v>
+        <v>3216618</v>
       </c>
       <c r="I37" s="17">
-        <v>3216618</v>
+        <v>3020051</v>
       </c>
       <c r="J37" s="17">
-        <v>3020050</v>
+        <v>3808637</v>
       </c>
       <c r="K37" s="17">
-        <v>3808637</v>
+        <v>5132638</v>
       </c>
       <c r="L37" s="17">
-        <v>5132638</v>
+        <v>5168192</v>
       </c>
       <c r="M37" s="17">
-        <v>5168192</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7035280</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1868,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1904,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1940,115 +1976,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>116882</v>
+        <v>84116</v>
       </c>
       <c r="E41" s="15">
-        <v>84116</v>
+        <v>129316</v>
       </c>
       <c r="F41" s="15">
-        <v>129316</v>
+        <v>117031</v>
       </c>
       <c r="G41" s="15">
-        <v>117031</v>
+        <v>120715</v>
       </c>
       <c r="H41" s="15">
-        <v>120715</v>
+        <v>90202</v>
       </c>
       <c r="I41" s="15">
-        <v>90202</v>
+        <v>133775</v>
       </c>
       <c r="J41" s="15">
-        <v>133775</v>
+        <v>144126</v>
       </c>
       <c r="K41" s="15">
-        <v>144126</v>
+        <v>145174</v>
       </c>
       <c r="L41" s="15">
-        <v>145174</v>
+        <v>142731</v>
       </c>
       <c r="M41" s="15">
-        <v>142731</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>214532</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>116882</v>
+        <v>84116</v>
       </c>
       <c r="E42" s="19">
-        <v>84116</v>
+        <v>129316</v>
       </c>
       <c r="F42" s="19">
-        <v>129316</v>
+        <v>117031</v>
       </c>
       <c r="G42" s="19">
-        <v>117031</v>
+        <v>120715</v>
       </c>
       <c r="H42" s="19">
-        <v>120715</v>
+        <v>90202</v>
       </c>
       <c r="I42" s="19">
-        <v>90202</v>
+        <v>133775</v>
       </c>
       <c r="J42" s="19">
-        <v>133775</v>
+        <v>144126</v>
       </c>
       <c r="K42" s="19">
-        <v>144126</v>
+        <v>145174</v>
       </c>
       <c r="L42" s="19">
-        <v>145174</v>
+        <v>142731</v>
       </c>
       <c r="M42" s="19">
-        <v>142731</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>214532</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>735175</v>
+        <v>896917</v>
       </c>
       <c r="E43" s="17">
-        <v>896917</v>
+        <v>2050086</v>
       </c>
       <c r="F43" s="17">
-        <v>2050086</v>
+        <v>2475390</v>
       </c>
       <c r="G43" s="17">
-        <v>2475390</v>
+        <v>3574581</v>
       </c>
       <c r="H43" s="17">
-        <v>3574581</v>
+        <v>3306820</v>
       </c>
       <c r="I43" s="17">
-        <v>3306820</v>
+        <v>3153826</v>
       </c>
       <c r="J43" s="17">
-        <v>3153825</v>
+        <v>3952763</v>
       </c>
       <c r="K43" s="17">
-        <v>3952763</v>
+        <v>5277812</v>
       </c>
       <c r="L43" s="17">
-        <v>5277812</v>
+        <v>5310923</v>
       </c>
       <c r="M43" s="17">
-        <v>5310923</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7249812</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2064,7 +2100,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2100,7 +2136,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2136,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2172,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2208,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2244,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2253,7 +2289,7 @@
         <v>30916</v>
       </c>
       <c r="E50" s="11">
-        <v>30916</v>
+        <v>51719</v>
       </c>
       <c r="F50" s="11">
         <v>51719</v>
@@ -2265,7 +2301,7 @@
         <v>51719</v>
       </c>
       <c r="I50" s="11">
-        <v>51719</v>
+        <v>70000</v>
       </c>
       <c r="J50" s="11">
         <v>70000</v>
@@ -2280,7 +2316,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2316,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2352,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2388,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2424,7 +2460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2460,115 +2496,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>235785</v>
+        <v>396481</v>
       </c>
       <c r="E56" s="11">
-        <v>396481</v>
+        <v>472305</v>
       </c>
       <c r="F56" s="11">
-        <v>472305</v>
+        <v>638820</v>
       </c>
       <c r="G56" s="11">
-        <v>638820</v>
+        <v>632305</v>
       </c>
       <c r="H56" s="11">
-        <v>632305</v>
+        <v>958655</v>
       </c>
       <c r="I56" s="11">
-        <v>958655</v>
+        <v>885827</v>
       </c>
       <c r="J56" s="11">
-        <v>885828</v>
+        <v>794384</v>
       </c>
       <c r="K56" s="11">
-        <v>794384</v>
+        <v>1217122</v>
       </c>
       <c r="L56" s="11">
-        <v>1217122</v>
+        <v>1658176</v>
       </c>
       <c r="M56" s="11">
-        <v>1658176</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1752481</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>966701</v>
+        <v>1127397</v>
       </c>
       <c r="E57" s="17">
-        <v>1127397</v>
+        <v>1224024</v>
       </c>
       <c r="F57" s="17">
-        <v>1224024</v>
+        <v>1390539</v>
       </c>
       <c r="G57" s="17">
-        <v>1390539</v>
+        <v>1384024</v>
       </c>
       <c r="H57" s="17">
-        <v>1384024</v>
+        <v>1710374</v>
       </c>
       <c r="I57" s="17">
-        <v>1710374</v>
+        <v>1655827</v>
       </c>
       <c r="J57" s="17">
-        <v>1655828</v>
+        <v>1564384</v>
       </c>
       <c r="K57" s="17">
-        <v>1564384</v>
+        <v>1987122</v>
       </c>
       <c r="L57" s="17">
-        <v>1987122</v>
+        <v>2428176</v>
       </c>
       <c r="M57" s="17">
-        <v>2428176</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2522481</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>1701876</v>
+        <v>2024314</v>
       </c>
       <c r="E58" s="19">
-        <v>2024314</v>
+        <v>3274110</v>
       </c>
       <c r="F58" s="19">
-        <v>3274110</v>
+        <v>3865929</v>
       </c>
       <c r="G58" s="19">
-        <v>3865929</v>
+        <v>4958605</v>
       </c>
       <c r="H58" s="19">
-        <v>4958605</v>
+        <v>5017194</v>
       </c>
       <c r="I58" s="19">
-        <v>5017194</v>
+        <v>4809653</v>
       </c>
       <c r="J58" s="19">
-        <v>4809653</v>
+        <v>5517147</v>
       </c>
       <c r="K58" s="19">
-        <v>5517147</v>
+        <v>7264934</v>
       </c>
       <c r="L58" s="19">
-        <v>7264934</v>
+        <v>7739099</v>
       </c>
       <c r="M58" s="19">
-        <v>7739099</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9772293</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/chemical/sharum/balancesheet/quarterly.xlsx
+++ b/database/industries/chemical/sharum/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\sharum\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\chemical\sharum\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A5AC7-79CD-40E7-A7CE-41316B223D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99170929-1272-4464-BC3C-99624CA2FF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-10-29</t>
-  </si>
-  <si>
     <t>1401-04-05 (10)</t>
   </si>
   <si>
@@ -85,7 +82,7 @@
     <t>1400-12-23 (2)</t>
   </si>
   <si>
-    <t>1402-02-27 (7)</t>
+    <t>1402-04-13 (8)</t>
   </si>
   <si>
     <t>1401-04-29</t>
@@ -97,7 +94,10 @@
     <t>1401-10-29</t>
   </si>
   <si>
-    <t>1402-02-27</t>
+    <t>1402-04-31 (3)</t>
+  </si>
+  <si>
+    <t>1402-04-31</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -736,12 +736,12 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
@@ -958,34 +958,34 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>144976</v>
+        <v>49576</v>
       </c>
       <c r="E12" s="15">
-        <v>49576</v>
+        <v>102669</v>
       </c>
       <c r="F12" s="15">
-        <v>102669</v>
+        <v>230762</v>
       </c>
       <c r="G12" s="15">
-        <v>230762</v>
+        <v>173058</v>
       </c>
       <c r="H12" s="15">
-        <v>173058</v>
+        <v>409973</v>
       </c>
       <c r="I12" s="15">
-        <v>409973</v>
+        <v>237375</v>
       </c>
       <c r="J12" s="15">
-        <v>237375</v>
+        <v>26534</v>
       </c>
       <c r="K12" s="15">
-        <v>26534</v>
+        <v>772906</v>
       </c>
       <c r="L12" s="15">
-        <v>772906</v>
+        <v>709136</v>
       </c>
       <c r="M12" s="15">
-        <v>708620</v>
+        <v>1003048</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -994,31 +994,31 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>162430</v>
+        <v>342001</v>
       </c>
       <c r="E13" s="11">
-        <v>342001</v>
+        <v>348701</v>
       </c>
       <c r="F13" s="11">
-        <v>348701</v>
+        <v>1195531</v>
       </c>
       <c r="G13" s="11">
-        <v>1195531</v>
+        <v>931531</v>
       </c>
       <c r="H13" s="11">
-        <v>931531</v>
+        <v>39251</v>
       </c>
       <c r="I13" s="11">
-        <v>39251</v>
+        <v>11200</v>
       </c>
       <c r="J13" s="11">
-        <v>11200</v>
+        <v>13801</v>
       </c>
       <c r="K13" s="11">
         <v>13801</v>
       </c>
       <c r="L13" s="11">
-        <v>13801</v>
+        <v>11200</v>
       </c>
       <c r="M13" s="11">
         <v>11200</v>
@@ -1030,34 +1030,34 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>100704</v>
+        <v>163778</v>
       </c>
       <c r="E14" s="15">
-        <v>163778</v>
+        <v>439428</v>
       </c>
       <c r="F14" s="15">
-        <v>439428</v>
+        <v>408619</v>
       </c>
       <c r="G14" s="15">
-        <v>408619</v>
+        <v>331996</v>
       </c>
       <c r="H14" s="15">
-        <v>331996</v>
+        <v>1015661</v>
       </c>
       <c r="I14" s="15">
-        <v>1015661</v>
+        <v>747776</v>
       </c>
       <c r="J14" s="15">
-        <v>747776</v>
+        <v>2721067</v>
       </c>
       <c r="K14" s="15">
-        <v>2721067</v>
+        <v>3109146</v>
       </c>
       <c r="L14" s="15">
-        <v>3109146</v>
+        <v>2012167</v>
       </c>
       <c r="M14" s="15">
-        <v>2012247</v>
+        <v>6850009</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1066,34 +1066,34 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>299057</v>
+        <v>1529149</v>
       </c>
       <c r="E15" s="11">
-        <v>1529149</v>
+        <v>1619704</v>
       </c>
       <c r="F15" s="11">
-        <v>1619704</v>
+        <v>1779685</v>
       </c>
       <c r="G15" s="11">
-        <v>1779685</v>
+        <v>2340393</v>
       </c>
       <c r="H15" s="11">
-        <v>2340393</v>
+        <v>2043642</v>
       </c>
       <c r="I15" s="11">
-        <v>2043642</v>
+        <v>2999307</v>
       </c>
       <c r="J15" s="11">
-        <v>2999307</v>
+        <v>2919839</v>
       </c>
       <c r="K15" s="11">
-        <v>2919839</v>
+        <v>2354610</v>
       </c>
       <c r="L15" s="11">
-        <v>2354610</v>
+        <v>4173132</v>
       </c>
       <c r="M15" s="11">
-        <v>4267680</v>
+        <v>1479365</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -1102,34 +1102,34 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>637714</v>
+        <v>459481</v>
       </c>
       <c r="E16" s="15">
-        <v>459481</v>
+        <v>189291</v>
       </c>
       <c r="F16" s="15">
-        <v>189291</v>
+        <v>562376</v>
       </c>
       <c r="G16" s="15">
-        <v>562376</v>
+        <v>395868</v>
       </c>
       <c r="H16" s="15">
-        <v>395868</v>
+        <v>277476</v>
       </c>
       <c r="I16" s="15">
-        <v>277476</v>
+        <v>524765</v>
       </c>
       <c r="J16" s="15">
-        <v>524765</v>
+        <v>498859</v>
       </c>
       <c r="K16" s="15">
-        <v>498859</v>
+        <v>160654</v>
       </c>
       <c r="L16" s="15">
-        <v>160654</v>
+        <v>244440</v>
       </c>
       <c r="M16" s="15">
-        <v>244440</v>
+        <v>1380266</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -1174,34 +1174,34 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>1344881</v>
+        <v>2543985</v>
       </c>
       <c r="E18" s="17">
-        <v>2543985</v>
+        <v>2699793</v>
       </c>
       <c r="F18" s="17">
-        <v>2699793</v>
+        <v>4176973</v>
       </c>
       <c r="G18" s="17">
-        <v>4176973</v>
+        <v>4172846</v>
       </c>
       <c r="H18" s="17">
-        <v>4172846</v>
+        <v>3786003</v>
       </c>
       <c r="I18" s="17">
-        <v>3786003</v>
+        <v>4520423</v>
       </c>
       <c r="J18" s="17">
-        <v>4520423</v>
+        <v>6180100</v>
       </c>
       <c r="K18" s="17">
-        <v>6180100</v>
+        <v>6411117</v>
       </c>
       <c r="L18" s="17">
-        <v>6411117</v>
+        <v>7150075</v>
       </c>
       <c r="M18" s="17">
-        <v>7244187</v>
+        <v>10723888</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -1246,13 +1246,13 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>2034</v>
       </c>
       <c r="E20" s="15">
         <v>2034</v>
       </c>
       <c r="F20" s="15">
-        <v>2034</v>
+        <v>2583</v>
       </c>
       <c r="G20" s="15">
         <v>2583</v>
@@ -1261,19 +1261,19 @@
         <v>2583</v>
       </c>
       <c r="I20" s="15">
-        <v>2583</v>
+        <v>2632</v>
       </c>
       <c r="J20" s="15">
-        <v>2632</v>
+        <v>632</v>
       </c>
       <c r="K20" s="15">
         <v>632</v>
       </c>
       <c r="L20" s="15">
-        <v>632</v>
+        <v>711</v>
       </c>
       <c r="M20" s="15">
-        <v>632</v>
+        <v>711</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1318,34 +1318,34 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>674869</v>
+        <v>723354</v>
       </c>
       <c r="E22" s="15">
-        <v>723354</v>
+        <v>1159538</v>
       </c>
       <c r="F22" s="15">
-        <v>1159538</v>
+        <v>774356</v>
       </c>
       <c r="G22" s="15">
-        <v>774356</v>
+        <v>837201</v>
       </c>
       <c r="H22" s="15">
-        <v>837201</v>
+        <v>1016417</v>
       </c>
       <c r="I22" s="15">
-        <v>1016417</v>
+        <v>989528</v>
       </c>
       <c r="J22" s="15">
-        <v>989528</v>
+        <v>1079595</v>
       </c>
       <c r="K22" s="15">
-        <v>1079595</v>
+        <v>1322700</v>
       </c>
       <c r="L22" s="15">
-        <v>1322700</v>
+        <v>2645265</v>
       </c>
       <c r="M22" s="15">
-        <v>2522910</v>
+        <v>2798981</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -1354,34 +1354,34 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>4737</v>
+      </c>
+      <c r="E23" s="11">
         <v>4564</v>
       </c>
-      <c r="E23" s="11">
-        <v>4737</v>
-      </c>
       <c r="F23" s="11">
+        <v>4693</v>
+      </c>
+      <c r="G23" s="11">
         <v>4564</v>
       </c>
-      <c r="G23" s="11">
-        <v>4693</v>
-      </c>
       <c r="H23" s="11">
+        <v>4650</v>
+      </c>
+      <c r="I23" s="11">
         <v>4564</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
+        <v>4607</v>
+      </c>
+      <c r="K23" s="11">
         <v>4650</v>
       </c>
-      <c r="J23" s="11">
+      <c r="L23" s="11">
         <v>4564</v>
       </c>
-      <c r="K23" s="11">
-        <v>4607</v>
-      </c>
-      <c r="L23" s="11">
-        <v>4650</v>
-      </c>
       <c r="M23" s="11">
-        <v>4564</v>
+        <v>7057</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
@@ -1462,34 +1462,34 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>679433</v>
+        <v>730125</v>
       </c>
       <c r="E26" s="17">
-        <v>730125</v>
+        <v>1166136</v>
       </c>
       <c r="F26" s="17">
-        <v>1166136</v>
+        <v>781632</v>
       </c>
       <c r="G26" s="17">
-        <v>781632</v>
+        <v>844348</v>
       </c>
       <c r="H26" s="17">
-        <v>844348</v>
+        <v>1023650</v>
       </c>
       <c r="I26" s="17">
-        <v>1023650</v>
+        <v>996724</v>
       </c>
       <c r="J26" s="17">
-        <v>996724</v>
+        <v>1084834</v>
       </c>
       <c r="K26" s="17">
-        <v>1084834</v>
+        <v>1327982</v>
       </c>
       <c r="L26" s="17">
-        <v>1327982</v>
+        <v>2650540</v>
       </c>
       <c r="M26" s="17">
-        <v>2528106</v>
+        <v>2806749</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -1498,34 +1498,34 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>2024314</v>
+        <v>3274110</v>
       </c>
       <c r="E27" s="19">
-        <v>3274110</v>
+        <v>3865929</v>
       </c>
       <c r="F27" s="19">
-        <v>3865929</v>
+        <v>4958605</v>
       </c>
       <c r="G27" s="19">
-        <v>4958605</v>
+        <v>5017194</v>
       </c>
       <c r="H27" s="19">
-        <v>5017194</v>
+        <v>4809653</v>
       </c>
       <c r="I27" s="19">
-        <v>4809653</v>
+        <v>5517147</v>
       </c>
       <c r="J27" s="19">
-        <v>5517147</v>
+        <v>7264934</v>
       </c>
       <c r="K27" s="19">
-        <v>7264934</v>
+        <v>7739099</v>
       </c>
       <c r="L27" s="19">
-        <v>7739099</v>
+        <v>9800615</v>
       </c>
       <c r="M27" s="19">
-        <v>9772293</v>
+        <v>13530637</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
@@ -1550,34 +1550,34 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>493176</v>
+        <v>1800119</v>
       </c>
       <c r="E29" s="15">
-        <v>1800119</v>
+        <v>2257398</v>
       </c>
       <c r="F29" s="15">
-        <v>2257398</v>
+        <v>2027854</v>
       </c>
       <c r="G29" s="15">
-        <v>2027854</v>
+        <v>1468187</v>
       </c>
       <c r="H29" s="15">
-        <v>1468187</v>
+        <v>973521</v>
       </c>
       <c r="I29" s="15">
-        <v>973521</v>
+        <v>832493</v>
       </c>
       <c r="J29" s="15">
-        <v>832493</v>
+        <v>1235102</v>
       </c>
       <c r="K29" s="15">
-        <v>1235102</v>
+        <v>922068</v>
       </c>
       <c r="L29" s="15">
-        <v>922068</v>
+        <v>2583390</v>
       </c>
       <c r="M29" s="15">
-        <v>1491363</v>
+        <v>4436128</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -1622,34 +1622,34 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>135794</v>
+        <v>68615</v>
       </c>
       <c r="E31" s="15">
-        <v>68615</v>
+        <v>29645</v>
       </c>
       <c r="F31" s="15">
-        <v>29645</v>
+        <v>56956</v>
       </c>
       <c r="G31" s="15">
-        <v>56956</v>
+        <v>272666</v>
       </c>
       <c r="H31" s="15">
-        <v>272666</v>
+        <v>136078</v>
       </c>
       <c r="I31" s="15">
-        <v>136078</v>
+        <v>96538</v>
       </c>
       <c r="J31" s="15">
-        <v>96538</v>
+        <v>141639</v>
       </c>
       <c r="K31" s="15">
-        <v>141639</v>
+        <v>83296</v>
       </c>
       <c r="L31" s="15">
-        <v>83296</v>
+        <v>200352</v>
       </c>
       <c r="M31" s="15">
-        <v>200353</v>
+        <v>35861</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -1658,34 +1658,34 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>3831</v>
+        <v>27412</v>
       </c>
       <c r="E32" s="11">
-        <v>27412</v>
+        <v>47377</v>
       </c>
       <c r="F32" s="11">
-        <v>47377</v>
+        <v>72906</v>
       </c>
       <c r="G32" s="11">
-        <v>72906</v>
+        <v>0</v>
       </c>
       <c r="H32" s="11">
-        <v>0</v>
+        <v>68882</v>
       </c>
       <c r="I32" s="11">
-        <v>68882</v>
+        <v>73726</v>
       </c>
       <c r="J32" s="11">
-        <v>73726</v>
+        <v>71760</v>
       </c>
       <c r="K32" s="11">
-        <v>71760</v>
+        <v>300337</v>
       </c>
       <c r="L32" s="11">
-        <v>300337</v>
+        <v>84770</v>
       </c>
       <c r="M32" s="11">
-        <v>86512</v>
+        <v>494126</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
@@ -1694,34 +1694,34 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>180000</v>
+        <v>24624</v>
       </c>
       <c r="E33" s="15">
-        <v>24624</v>
+        <v>23939</v>
       </c>
       <c r="F33" s="15">
-        <v>23939</v>
+        <v>271492</v>
       </c>
       <c r="G33" s="15">
-        <v>271492</v>
+        <v>123845</v>
       </c>
       <c r="H33" s="15">
-        <v>123845</v>
+        <v>71580</v>
       </c>
       <c r="I33" s="15">
-        <v>71580</v>
+        <v>341523</v>
       </c>
       <c r="J33" s="15">
-        <v>341523</v>
+        <v>340829</v>
       </c>
       <c r="K33" s="15">
-        <v>340829</v>
+        <v>119801</v>
       </c>
       <c r="L33" s="15">
-        <v>119801</v>
+        <v>10306</v>
       </c>
       <c r="M33" s="15">
-        <v>10306</v>
+        <v>360271</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
@@ -1736,28 +1736,28 @@
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>0</v>
+        <v>1024658</v>
       </c>
       <c r="G34" s="11">
-        <v>1024658</v>
+        <v>1351920</v>
       </c>
       <c r="H34" s="11">
-        <v>1351920</v>
+        <v>1769990</v>
       </c>
       <c r="I34" s="11">
-        <v>1769990</v>
+        <v>2464357</v>
       </c>
       <c r="J34" s="11">
-        <v>2464357</v>
+        <v>3343308</v>
       </c>
       <c r="K34" s="11">
-        <v>3343308</v>
+        <v>3742690</v>
       </c>
       <c r="L34" s="11">
-        <v>3742690</v>
+        <v>3889389</v>
       </c>
       <c r="M34" s="11">
-        <v>5246746</v>
+        <v>4486914</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
@@ -1838,34 +1838,34 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>812801</v>
+        <v>1920770</v>
       </c>
       <c r="E37" s="17">
-        <v>1920770</v>
+        <v>2358359</v>
       </c>
       <c r="F37" s="17">
-        <v>2358359</v>
+        <v>3453866</v>
       </c>
       <c r="G37" s="17">
-        <v>3453866</v>
+        <v>3216618</v>
       </c>
       <c r="H37" s="17">
-        <v>3216618</v>
+        <v>3020051</v>
       </c>
       <c r="I37" s="17">
-        <v>3020051</v>
+        <v>3808637</v>
       </c>
       <c r="J37" s="17">
-        <v>3808637</v>
+        <v>5132638</v>
       </c>
       <c r="K37" s="17">
-        <v>5132638</v>
+        <v>5168192</v>
       </c>
       <c r="L37" s="17">
-        <v>5168192</v>
+        <v>6768207</v>
       </c>
       <c r="M37" s="17">
-        <v>7035280</v>
+        <v>9813300</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <v>0</v>
+        <v>268339</v>
       </c>
       <c r="M40" s="11">
-        <v>0</v>
+        <v>268339</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
@@ -1982,34 +1982,34 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>84116</v>
+        <v>129316</v>
       </c>
       <c r="E41" s="15">
-        <v>129316</v>
+        <v>117031</v>
       </c>
       <c r="F41" s="15">
-        <v>117031</v>
+        <v>120715</v>
       </c>
       <c r="G41" s="15">
-        <v>120715</v>
+        <v>90202</v>
       </c>
       <c r="H41" s="15">
-        <v>90202</v>
+        <v>133775</v>
       </c>
       <c r="I41" s="15">
-        <v>133775</v>
+        <v>144126</v>
       </c>
       <c r="J41" s="15">
-        <v>144126</v>
+        <v>145174</v>
       </c>
       <c r="K41" s="15">
-        <v>145174</v>
+        <v>142731</v>
       </c>
       <c r="L41" s="15">
-        <v>142731</v>
+        <v>214532</v>
       </c>
       <c r="M41" s="15">
-        <v>214532</v>
+        <v>212732</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
@@ -2018,34 +2018,34 @@
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>84116</v>
+        <v>129316</v>
       </c>
       <c r="E42" s="19">
-        <v>129316</v>
+        <v>117031</v>
       </c>
       <c r="F42" s="19">
-        <v>117031</v>
+        <v>120715</v>
       </c>
       <c r="G42" s="19">
-        <v>120715</v>
+        <v>90202</v>
       </c>
       <c r="H42" s="19">
-        <v>90202</v>
+        <v>133775</v>
       </c>
       <c r="I42" s="19">
-        <v>133775</v>
+        <v>144126</v>
       </c>
       <c r="J42" s="19">
-        <v>144126</v>
+        <v>145174</v>
       </c>
       <c r="K42" s="19">
-        <v>145174</v>
+        <v>142731</v>
       </c>
       <c r="L42" s="19">
-        <v>142731</v>
+        <v>482871</v>
       </c>
       <c r="M42" s="19">
-        <v>214532</v>
+        <v>481071</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
@@ -2054,34 +2054,34 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>896917</v>
+        <v>2050086</v>
       </c>
       <c r="E43" s="17">
-        <v>2050086</v>
+        <v>2475390</v>
       </c>
       <c r="F43" s="17">
-        <v>2475390</v>
+        <v>3574581</v>
       </c>
       <c r="G43" s="17">
-        <v>3574581</v>
+        <v>3306820</v>
       </c>
       <c r="H43" s="17">
-        <v>3306820</v>
+        <v>3153826</v>
       </c>
       <c r="I43" s="17">
-        <v>3153826</v>
+        <v>3952763</v>
       </c>
       <c r="J43" s="17">
-        <v>3952763</v>
+        <v>5277812</v>
       </c>
       <c r="K43" s="17">
-        <v>5277812</v>
+        <v>5310923</v>
       </c>
       <c r="L43" s="17">
-        <v>5310923</v>
+        <v>7251078</v>
       </c>
       <c r="M43" s="17">
-        <v>7249812</v>
+        <v>10294371</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>30916</v>
+        <v>51719</v>
       </c>
       <c r="E50" s="11">
         <v>51719</v>
@@ -2298,7 +2298,7 @@
         <v>51719</v>
       </c>
       <c r="H50" s="11">
-        <v>51719</v>
+        <v>70000</v>
       </c>
       <c r="I50" s="11">
         <v>70000</v>
@@ -2502,34 +2502,34 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>396481</v>
+        <v>472305</v>
       </c>
       <c r="E56" s="11">
-        <v>472305</v>
+        <v>638820</v>
       </c>
       <c r="F56" s="11">
-        <v>638820</v>
+        <v>632305</v>
       </c>
       <c r="G56" s="11">
-        <v>632305</v>
+        <v>958655</v>
       </c>
       <c r="H56" s="11">
-        <v>958655</v>
+        <v>885827</v>
       </c>
       <c r="I56" s="11">
-        <v>885827</v>
+        <v>794384</v>
       </c>
       <c r="J56" s="11">
-        <v>794384</v>
+        <v>1217122</v>
       </c>
       <c r="K56" s="11">
-        <v>1217122</v>
+        <v>1658176</v>
       </c>
       <c r="L56" s="11">
-        <v>1658176</v>
+        <v>1779537</v>
       </c>
       <c r="M56" s="11">
-        <v>1752481</v>
+        <v>2466266</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
@@ -2538,34 +2538,34 @@
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>1127397</v>
+        <v>1224024</v>
       </c>
       <c r="E57" s="17">
-        <v>1224024</v>
+        <v>1390539</v>
       </c>
       <c r="F57" s="17">
-        <v>1390539</v>
+        <v>1384024</v>
       </c>
       <c r="G57" s="17">
-        <v>1384024</v>
+        <v>1710374</v>
       </c>
       <c r="H57" s="17">
-        <v>1710374</v>
+        <v>1655827</v>
       </c>
       <c r="I57" s="17">
-        <v>1655827</v>
+        <v>1564384</v>
       </c>
       <c r="J57" s="17">
-        <v>1564384</v>
+        <v>1987122</v>
       </c>
       <c r="K57" s="17">
-        <v>1987122</v>
+        <v>2428176</v>
       </c>
       <c r="L57" s="17">
-        <v>2428176</v>
+        <v>2549537</v>
       </c>
       <c r="M57" s="17">
-        <v>2522481</v>
+        <v>3236266</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
@@ -2574,34 +2574,34 @@
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>2024314</v>
+        <v>3274110</v>
       </c>
       <c r="E58" s="19">
-        <v>3274110</v>
+        <v>3865929</v>
       </c>
       <c r="F58" s="19">
-        <v>3865929</v>
+        <v>4958605</v>
       </c>
       <c r="G58" s="19">
-        <v>4958605</v>
+        <v>5017194</v>
       </c>
       <c r="H58" s="19">
-        <v>5017194</v>
+        <v>4809653</v>
       </c>
       <c r="I58" s="19">
-        <v>4809653</v>
+        <v>5517147</v>
       </c>
       <c r="J58" s="19">
-        <v>5517147</v>
+        <v>7264934</v>
       </c>
       <c r="K58" s="19">
-        <v>7264934</v>
+        <v>7739099</v>
       </c>
       <c r="L58" s="19">
-        <v>7739099</v>
+        <v>9800615</v>
       </c>
       <c r="M58" s="19">
-        <v>9772293</v>
+        <v>13530637</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">

--- a/database/industries/chemical/sharum/balancesheet/quarterly.xlsx
+++ b/database/industries/chemical/sharum/balancesheet/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\chemical\sharum\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99170929-1272-4464-BC3C-99624CA2FF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A231C70-7613-4734-98AD-422C986EA0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>شاروم-پتروشیمی ارومیه</t>
@@ -37,6 +37,33 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
@@ -67,9 +94,30 @@
     <t>فصل اول منتهی به 1402/03</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-05-12 (5)</t>
+  </si>
+  <si>
+    <t>1399-05-12</t>
+  </si>
+  <si>
+    <t>1400-04-15 (9)</t>
+  </si>
+  <si>
+    <t>1399-05-08 (2)</t>
+  </si>
+  <si>
+    <t>1399-08-29 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-29</t>
+  </si>
+  <si>
     <t>1401-04-05 (10)</t>
   </si>
   <si>
@@ -94,18 +142,24 @@
     <t>1401-10-29</t>
   </si>
   <si>
-    <t>1402-04-31 (3)</t>
+    <t>1402-08-30 (5)</t>
   </si>
   <si>
     <t>1402-04-31</t>
   </si>
   <si>
+    <t>1402-08-30 (2)</t>
+  </si>
+  <si>
     <t>دارایی</t>
   </si>
   <si>
     <t>موجودی نقد</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>سرمایه گذاری کوتاه مدت</t>
   </si>
   <si>
@@ -140,9 +194,6 @@
   </si>
   <si>
     <t>پیش پرداخت های سرمایه ای</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سایر دارایی ها</t>
@@ -728,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,15 +787,20 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,8 +813,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,8 +839,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,8 +865,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,8 +889,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,8 +915,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,8 +941,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,8 +965,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,44 +1011,98 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,10 +1115,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -951,206 +1141,366 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
+      <c r="D12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="15">
+        <v>201327</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="15">
+        <v>69586</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="15">
+        <v>109867</v>
+      </c>
+      <c r="J12" s="15">
+        <v>139947</v>
+      </c>
+      <c r="K12" s="15">
+        <v>192275</v>
+      </c>
+      <c r="L12" s="15">
+        <v>144976</v>
+      </c>
+      <c r="M12" s="15">
         <v>49576</v>
       </c>
-      <c r="E12" s="15">
+      <c r="N12" s="15">
         <v>102669</v>
       </c>
-      <c r="F12" s="15">
+      <c r="O12" s="15">
         <v>230762</v>
       </c>
-      <c r="G12" s="15">
+      <c r="P12" s="15">
         <v>173058</v>
       </c>
-      <c r="H12" s="15">
+      <c r="Q12" s="15">
         <v>409973</v>
       </c>
-      <c r="I12" s="15">
+      <c r="R12" s="15">
         <v>237375</v>
       </c>
-      <c r="J12" s="15">
+      <c r="S12" s="15">
         <v>26534</v>
       </c>
-      <c r="K12" s="15">
+      <c r="T12" s="15">
         <v>772906</v>
       </c>
-      <c r="L12" s="15">
+      <c r="U12" s="15">
         <v>709136</v>
       </c>
-      <c r="M12" s="15">
+      <c r="V12" s="15">
         <v>1003048</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W12" s="15">
+        <v>1301047</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="D13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11">
+        <v>119930</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="11">
+        <v>119930</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="11">
+        <v>150930</v>
+      </c>
+      <c r="J13" s="11">
+        <v>162430</v>
+      </c>
+      <c r="K13" s="11">
+        <v>162430</v>
+      </c>
+      <c r="L13" s="11">
+        <v>162430</v>
+      </c>
+      <c r="M13" s="11">
         <v>342001</v>
       </c>
-      <c r="E13" s="11">
+      <c r="N13" s="11">
         <v>348701</v>
       </c>
-      <c r="F13" s="11">
+      <c r="O13" s="11">
         <v>1195531</v>
       </c>
-      <c r="G13" s="11">
+      <c r="P13" s="11">
         <v>931531</v>
       </c>
-      <c r="H13" s="11">
+      <c r="Q13" s="11">
         <v>39251</v>
       </c>
-      <c r="I13" s="11">
+      <c r="R13" s="11">
         <v>11200</v>
       </c>
-      <c r="J13" s="11">
+      <c r="S13" s="11">
         <v>13801</v>
       </c>
-      <c r="K13" s="11">
+      <c r="T13" s="11">
         <v>13801</v>
       </c>
-      <c r="L13" s="11">
+      <c r="U13" s="11">
         <v>11200</v>
       </c>
-      <c r="M13" s="11">
+      <c r="V13" s="11">
         <v>11200</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W13" s="11">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15">
+      <c r="D14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="15">
+        <v>53085</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="15">
+        <v>84872</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="15">
+        <v>144527</v>
+      </c>
+      <c r="J14" s="15">
+        <v>107423</v>
+      </c>
+      <c r="K14" s="15">
+        <v>228177</v>
+      </c>
+      <c r="L14" s="15">
+        <v>100704</v>
+      </c>
+      <c r="M14" s="15">
         <v>163778</v>
       </c>
-      <c r="E14" s="15">
+      <c r="N14" s="15">
         <v>439428</v>
       </c>
-      <c r="F14" s="15">
+      <c r="O14" s="15">
         <v>408619</v>
       </c>
-      <c r="G14" s="15">
+      <c r="P14" s="15">
         <v>331996</v>
       </c>
-      <c r="H14" s="15">
+      <c r="Q14" s="15">
         <v>1015661</v>
       </c>
-      <c r="I14" s="15">
+      <c r="R14" s="15">
         <v>747776</v>
       </c>
-      <c r="J14" s="15">
+      <c r="S14" s="15">
         <v>2721067</v>
       </c>
-      <c r="K14" s="15">
+      <c r="T14" s="15">
         <v>3109146</v>
       </c>
-      <c r="L14" s="15">
-        <v>2012167</v>
-      </c>
-      <c r="M14" s="15">
+      <c r="U14" s="15">
+        <v>2022867</v>
+      </c>
+      <c r="V14" s="15">
         <v>6850009</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W14" s="15">
+        <v>5975711</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="D15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="11">
+        <v>84064</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="11">
+        <v>219210</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="11">
+        <v>179362</v>
+      </c>
+      <c r="J15" s="11">
+        <v>103385</v>
+      </c>
+      <c r="K15" s="11">
+        <v>154227</v>
+      </c>
+      <c r="L15" s="11">
+        <v>299057</v>
+      </c>
+      <c r="M15" s="11">
         <v>1529149</v>
       </c>
-      <c r="E15" s="11">
+      <c r="N15" s="11">
         <v>1619704</v>
       </c>
-      <c r="F15" s="11">
+      <c r="O15" s="11">
         <v>1779685</v>
       </c>
-      <c r="G15" s="11">
+      <c r="P15" s="11">
         <v>2340393</v>
       </c>
-      <c r="H15" s="11">
+      <c r="Q15" s="11">
         <v>2043642</v>
       </c>
-      <c r="I15" s="11">
+      <c r="R15" s="11">
         <v>2999307</v>
       </c>
-      <c r="J15" s="11">
+      <c r="S15" s="11">
         <v>2919839</v>
       </c>
-      <c r="K15" s="11">
+      <c r="T15" s="11">
         <v>2354610</v>
       </c>
-      <c r="L15" s="11">
+      <c r="U15" s="11">
         <v>4173132</v>
       </c>
-      <c r="M15" s="11">
+      <c r="V15" s="11">
         <v>1479365</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W15" s="11">
+        <v>2102179</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="D16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="15">
+        <v>64914</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="15">
+        <v>24309</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="15">
+        <v>178769</v>
+      </c>
+      <c r="J16" s="15">
+        <v>99110</v>
+      </c>
+      <c r="K16" s="15">
+        <v>250292</v>
+      </c>
+      <c r="L16" s="15">
+        <v>637714</v>
+      </c>
+      <c r="M16" s="15">
         <v>459481</v>
       </c>
-      <c r="E16" s="15">
+      <c r="N16" s="15">
         <v>189291</v>
       </c>
-      <c r="F16" s="15">
+      <c r="O16" s="15">
         <v>562376</v>
       </c>
-      <c r="G16" s="15">
+      <c r="P16" s="15">
         <v>395868</v>
       </c>
-      <c r="H16" s="15">
+      <c r="Q16" s="15">
         <v>277476</v>
       </c>
-      <c r="I16" s="15">
+      <c r="R16" s="15">
         <v>524765</v>
       </c>
-      <c r="J16" s="15">
+      <c r="S16" s="15">
         <v>498859</v>
       </c>
-      <c r="K16" s="15">
+      <c r="T16" s="15">
         <v>160654</v>
       </c>
-      <c r="L16" s="15">
-        <v>244440</v>
-      </c>
-      <c r="M16" s="15">
+      <c r="U16" s="15">
+        <v>233740</v>
+      </c>
+      <c r="V16" s="15">
         <v>1380266</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W16" s="15">
+        <v>464817</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11">
-        <v>0</v>
+      <c r="D17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
+      <c r="F17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
+      <c r="H17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
@@ -1167,62 +1517,122 @@
       <c r="M17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="17">
+      <c r="D18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="17">
+        <v>523320</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="17">
+        <v>517907</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="17">
+        <v>763455</v>
+      </c>
+      <c r="J18" s="17">
+        <v>612295</v>
+      </c>
+      <c r="K18" s="17">
+        <v>987401</v>
+      </c>
+      <c r="L18" s="17">
+        <v>1344881</v>
+      </c>
+      <c r="M18" s="17">
         <v>2543985</v>
       </c>
-      <c r="E18" s="17">
+      <c r="N18" s="17">
         <v>2699793</v>
       </c>
-      <c r="F18" s="17">
+      <c r="O18" s="17">
         <v>4176973</v>
       </c>
-      <c r="G18" s="17">
+      <c r="P18" s="17">
         <v>4172846</v>
       </c>
-      <c r="H18" s="17">
+      <c r="Q18" s="17">
         <v>3786003</v>
       </c>
-      <c r="I18" s="17">
+      <c r="R18" s="17">
         <v>4520423</v>
       </c>
-      <c r="J18" s="17">
+      <c r="S18" s="17">
         <v>6180100</v>
       </c>
-      <c r="K18" s="17">
+      <c r="T18" s="17">
         <v>6411117</v>
       </c>
-      <c r="L18" s="17">
+      <c r="U18" s="17">
         <v>7150075</v>
       </c>
-      <c r="M18" s="17">
+      <c r="V18" s="17">
         <v>10723888</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W18" s="17">
+        <v>9854954</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11">
-        <v>0</v>
+      <c r="D19" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
+      <c r="H19" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
@@ -1239,62 +1649,122 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15">
+      <c r="D20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
         <v>2034</v>
       </c>
-      <c r="E20" s="15">
+      <c r="N20" s="15">
         <v>2034</v>
       </c>
-      <c r="F20" s="15">
+      <c r="O20" s="15">
         <v>2583</v>
       </c>
-      <c r="G20" s="15">
+      <c r="P20" s="15">
         <v>2583</v>
       </c>
-      <c r="H20" s="15">
+      <c r="Q20" s="15">
         <v>2583</v>
       </c>
-      <c r="I20" s="15">
+      <c r="R20" s="15">
         <v>2632</v>
       </c>
-      <c r="J20" s="15">
+      <c r="S20" s="15">
         <v>632</v>
       </c>
-      <c r="K20" s="15">
+      <c r="T20" s="15">
         <v>632</v>
       </c>
-      <c r="L20" s="15">
+      <c r="U20" s="15">
         <v>711</v>
       </c>
-      <c r="M20" s="15">
+      <c r="V20" s="15">
         <v>711</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W20" s="15">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11">
-        <v>0</v>
+      <c r="D21" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
+      <c r="F21" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
+      <c r="H21" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I21" s="11">
         <v>0</v>
@@ -1311,134 +1781,254 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15">
+      <c r="D22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="15">
+        <v>673423</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="15">
+        <v>715782</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="15">
+        <v>719533</v>
+      </c>
+      <c r="J22" s="15">
+        <v>870172</v>
+      </c>
+      <c r="K22" s="15">
+        <v>709911</v>
+      </c>
+      <c r="L22" s="15">
+        <v>674869</v>
+      </c>
+      <c r="M22" s="15">
         <v>723354</v>
       </c>
-      <c r="E22" s="15">
+      <c r="N22" s="15">
         <v>1159538</v>
       </c>
-      <c r="F22" s="15">
+      <c r="O22" s="15">
         <v>774356</v>
       </c>
-      <c r="G22" s="15">
+      <c r="P22" s="15">
         <v>837201</v>
       </c>
-      <c r="H22" s="15">
+      <c r="Q22" s="15">
         <v>1016417</v>
       </c>
-      <c r="I22" s="15">
+      <c r="R22" s="15">
         <v>989528</v>
       </c>
-      <c r="J22" s="15">
+      <c r="S22" s="15">
         <v>1079595</v>
       </c>
-      <c r="K22" s="15">
+      <c r="T22" s="15">
         <v>1322700</v>
       </c>
-      <c r="L22" s="15">
+      <c r="U22" s="15">
         <v>2645265</v>
       </c>
-      <c r="M22" s="15">
+      <c r="V22" s="15">
         <v>2798981</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W22" s="15">
+        <v>3710658</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11">
-        <v>4737</v>
+      <c r="D23" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E23" s="11">
-        <v>4564</v>
-      </c>
-      <c r="F23" s="11">
-        <v>4693</v>
+        <v>4591</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G23" s="11">
-        <v>4564</v>
-      </c>
-      <c r="H23" s="11">
-        <v>4650</v>
+        <v>4577</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I23" s="11">
         <v>4564</v>
       </c>
       <c r="J23" s="11">
-        <v>4607</v>
+        <v>4564</v>
       </c>
       <c r="K23" s="11">
-        <v>4650</v>
+        <v>4564</v>
       </c>
       <c r="L23" s="11">
         <v>4564</v>
       </c>
       <c r="M23" s="11">
+        <v>4737</v>
+      </c>
+      <c r="N23" s="11">
+        <v>4564</v>
+      </c>
+      <c r="O23" s="11">
+        <v>4693</v>
+      </c>
+      <c r="P23" s="11">
+        <v>4564</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>4650</v>
+      </c>
+      <c r="R23" s="11">
+        <v>4564</v>
+      </c>
+      <c r="S23" s="11">
+        <v>4607</v>
+      </c>
+      <c r="T23" s="11">
+        <v>4650</v>
+      </c>
+      <c r="U23" s="11">
+        <v>4564</v>
+      </c>
+      <c r="V23" s="11">
         <v>7057</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W23" s="11">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11">
-        <v>0</v>
+      <c r="D25" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
+      <c r="F25" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
       </c>
-      <c r="H25" s="11">
-        <v>0</v>
+      <c r="H25" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I25" s="11">
         <v>0</v>
@@ -1455,82 +2045,172 @@
       <c r="M25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="17">
+      <c r="D26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="17">
+        <v>678014</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="17">
+        <v>720359</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="17">
+        <v>724097</v>
+      </c>
+      <c r="J26" s="17">
+        <v>874736</v>
+      </c>
+      <c r="K26" s="17">
+        <v>714475</v>
+      </c>
+      <c r="L26" s="17">
+        <v>679433</v>
+      </c>
+      <c r="M26" s="17">
         <v>730125</v>
       </c>
-      <c r="E26" s="17">
+      <c r="N26" s="17">
         <v>1166136</v>
       </c>
-      <c r="F26" s="17">
+      <c r="O26" s="17">
         <v>781632</v>
       </c>
-      <c r="G26" s="17">
+      <c r="P26" s="17">
         <v>844348</v>
       </c>
-      <c r="H26" s="17">
+      <c r="Q26" s="17">
         <v>1023650</v>
       </c>
-      <c r="I26" s="17">
+      <c r="R26" s="17">
         <v>996724</v>
       </c>
-      <c r="J26" s="17">
+      <c r="S26" s="17">
         <v>1084834</v>
       </c>
-      <c r="K26" s="17">
+      <c r="T26" s="17">
         <v>1327982</v>
       </c>
-      <c r="L26" s="17">
+      <c r="U26" s="17">
         <v>2650540</v>
       </c>
-      <c r="M26" s="17">
+      <c r="V26" s="17">
         <v>2806749</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W26" s="17">
+        <v>3716818</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="19">
+      <c r="D27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1201334</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1238266</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="19">
+        <v>1487552</v>
+      </c>
+      <c r="J27" s="19">
+        <v>1487031</v>
+      </c>
+      <c r="K27" s="19">
+        <v>1701876</v>
+      </c>
+      <c r="L27" s="19">
+        <v>2024314</v>
+      </c>
+      <c r="M27" s="19">
         <v>3274110</v>
       </c>
-      <c r="E27" s="19">
+      <c r="N27" s="19">
         <v>3865929</v>
       </c>
-      <c r="F27" s="19">
+      <c r="O27" s="19">
         <v>4958605</v>
       </c>
-      <c r="G27" s="19">
+      <c r="P27" s="19">
         <v>5017194</v>
       </c>
-      <c r="H27" s="19">
+      <c r="Q27" s="19">
         <v>4809653</v>
       </c>
-      <c r="I27" s="19">
+      <c r="R27" s="19">
         <v>5517147</v>
       </c>
-      <c r="J27" s="19">
+      <c r="S27" s="19">
         <v>7264934</v>
       </c>
-      <c r="K27" s="19">
+      <c r="T27" s="19">
         <v>7739099</v>
       </c>
-      <c r="L27" s="19">
+      <c r="U27" s="19">
         <v>9800615</v>
       </c>
-      <c r="M27" s="19">
+      <c r="V27" s="19">
         <v>13530637</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W27" s="19">
+        <v>13571772</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1543,242 +2223,432 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="15">
+      <c r="D29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="15">
+        <v>86732</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="15">
+        <v>264699</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="15">
+        <v>320445</v>
+      </c>
+      <c r="J29" s="15">
+        <v>237454</v>
+      </c>
+      <c r="K29" s="15">
+        <v>343277</v>
+      </c>
+      <c r="L29" s="15">
+        <v>493176</v>
+      </c>
+      <c r="M29" s="15">
         <v>1800119</v>
       </c>
-      <c r="E29" s="15">
+      <c r="N29" s="15">
         <v>2257398</v>
       </c>
-      <c r="F29" s="15">
+      <c r="O29" s="15">
         <v>2027854</v>
       </c>
-      <c r="G29" s="15">
+      <c r="P29" s="15">
         <v>1468187</v>
       </c>
-      <c r="H29" s="15">
+      <c r="Q29" s="15">
         <v>973521</v>
       </c>
-      <c r="I29" s="15">
+      <c r="R29" s="15">
         <v>832493</v>
       </c>
-      <c r="J29" s="15">
+      <c r="S29" s="15">
         <v>1235102</v>
       </c>
-      <c r="K29" s="15">
+      <c r="T29" s="15">
         <v>922068</v>
       </c>
-      <c r="L29" s="15">
+      <c r="U29" s="15">
         <v>2583390</v>
       </c>
-      <c r="M29" s="15">
+      <c r="V29" s="15">
         <v>4436128</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W29" s="15">
+        <v>2587025</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="15">
+      <c r="D31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="15">
+        <v>32181</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="15">
+        <v>5709</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="15">
+        <v>56425</v>
+      </c>
+      <c r="J31" s="15">
+        <v>64707</v>
+      </c>
+      <c r="K31" s="15">
+        <v>70519</v>
+      </c>
+      <c r="L31" s="15">
+        <v>135794</v>
+      </c>
+      <c r="M31" s="15">
         <v>68615</v>
       </c>
-      <c r="E31" s="15">
+      <c r="N31" s="15">
         <v>29645</v>
       </c>
-      <c r="F31" s="15">
+      <c r="O31" s="15">
         <v>56956</v>
       </c>
-      <c r="G31" s="15">
+      <c r="P31" s="15">
         <v>272666</v>
       </c>
-      <c r="H31" s="15">
+      <c r="Q31" s="15">
         <v>136078</v>
       </c>
-      <c r="I31" s="15">
+      <c r="R31" s="15">
         <v>96538</v>
       </c>
-      <c r="J31" s="15">
+      <c r="S31" s="15">
         <v>141639</v>
       </c>
-      <c r="K31" s="15">
+      <c r="T31" s="15">
         <v>83296</v>
       </c>
-      <c r="L31" s="15">
+      <c r="U31" s="15">
         <v>200352</v>
       </c>
-      <c r="M31" s="15">
+      <c r="V31" s="15">
         <v>35861</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W31" s="15">
+        <v>489123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="11">
+      <c r="D32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="11">
+        <v>34745</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="11">
+        <v>8380</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="11">
+        <v>19655</v>
+      </c>
+      <c r="J32" s="11">
+        <v>37641</v>
+      </c>
+      <c r="K32" s="11">
+        <v>24497</v>
+      </c>
+      <c r="L32" s="11">
+        <v>3831</v>
+      </c>
+      <c r="M32" s="11">
         <v>27412</v>
       </c>
-      <c r="E32" s="11">
+      <c r="N32" s="11">
         <v>47377</v>
       </c>
-      <c r="F32" s="11">
+      <c r="O32" s="11">
         <v>72906</v>
       </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
+      <c r="P32" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
         <v>68882</v>
       </c>
-      <c r="I32" s="11">
+      <c r="R32" s="11">
         <v>73726</v>
       </c>
-      <c r="J32" s="11">
+      <c r="S32" s="11">
         <v>71760</v>
       </c>
-      <c r="K32" s="11">
+      <c r="T32" s="11">
         <v>300337</v>
       </c>
-      <c r="L32" s="11">
+      <c r="U32" s="11">
         <v>84770</v>
       </c>
-      <c r="M32" s="11">
+      <c r="V32" s="11">
         <v>494126</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W32" s="11">
+        <v>478371</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="15">
+      <c r="D33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="15">
+        <v>14610</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>180000</v>
+      </c>
+      <c r="L33" s="15">
+        <v>180000</v>
+      </c>
+      <c r="M33" s="15">
         <v>24624</v>
       </c>
-      <c r="E33" s="15">
+      <c r="N33" s="15">
         <v>23939</v>
       </c>
-      <c r="F33" s="15">
+      <c r="O33" s="15">
         <v>271492</v>
       </c>
-      <c r="G33" s="15">
+      <c r="P33" s="15">
         <v>123845</v>
       </c>
-      <c r="H33" s="15">
+      <c r="Q33" s="15">
         <v>71580</v>
       </c>
-      <c r="I33" s="15">
+      <c r="R33" s="15">
         <v>341523</v>
       </c>
-      <c r="J33" s="15">
+      <c r="S33" s="15">
         <v>340829</v>
       </c>
-      <c r="K33" s="15">
+      <c r="T33" s="15">
         <v>119801</v>
       </c>
-      <c r="L33" s="15">
+      <c r="U33" s="15">
         <v>10306</v>
       </c>
-      <c r="M33" s="15">
+      <c r="V33" s="15">
         <v>360271</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W33" s="15">
+        <v>360270</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="11">
-        <v>0</v>
+      <c r="D34" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E34" s="11">
         <v>0</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+      <c r="O34" s="11">
         <v>1024658</v>
       </c>
-      <c r="G34" s="11">
+      <c r="P34" s="11">
         <v>1351920</v>
       </c>
-      <c r="H34" s="11">
+      <c r="Q34" s="11">
         <v>1769990</v>
       </c>
-      <c r="I34" s="11">
+      <c r="R34" s="11">
         <v>2464357</v>
       </c>
-      <c r="J34" s="11">
+      <c r="S34" s="11">
         <v>3343308</v>
       </c>
-      <c r="K34" s="11">
+      <c r="T34" s="11">
         <v>3742690</v>
       </c>
-      <c r="L34" s="11">
+      <c r="U34" s="11">
         <v>3889389</v>
       </c>
-      <c r="M34" s="11">
+      <c r="V34" s="11">
         <v>4486914</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W34" s="11">
+        <v>2373897</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15">
-        <v>0</v>
+      <c r="D35" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
+      <c r="F35" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G35" s="15">
         <v>0</v>
       </c>
-      <c r="H35" s="15">
-        <v>0</v>
+      <c r="H35" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I35" s="15">
         <v>0</v>
@@ -1795,26 +2665,56 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="11">
-        <v>0</v>
+      <c r="D36" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E36" s="11">
         <v>0</v>
       </c>
-      <c r="F36" s="11">
-        <v>0</v>
+      <c r="F36" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
+      <c r="H36" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I36" s="11">
         <v>0</v>
@@ -1831,62 +2731,122 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="17">
+      <c r="D37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="17">
+        <v>153658</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="17">
+        <v>293398</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="17">
+        <v>396525</v>
+      </c>
+      <c r="J37" s="17">
+        <v>339802</v>
+      </c>
+      <c r="K37" s="17">
+        <v>618293</v>
+      </c>
+      <c r="L37" s="17">
+        <v>812801</v>
+      </c>
+      <c r="M37" s="17">
         <v>1920770</v>
       </c>
-      <c r="E37" s="17">
+      <c r="N37" s="17">
         <v>2358359</v>
       </c>
-      <c r="F37" s="17">
+      <c r="O37" s="17">
         <v>3453866</v>
       </c>
-      <c r="G37" s="17">
+      <c r="P37" s="17">
         <v>3216618</v>
       </c>
-      <c r="H37" s="17">
+      <c r="Q37" s="17">
         <v>3020051</v>
       </c>
-      <c r="I37" s="17">
+      <c r="R37" s="17">
         <v>3808637</v>
       </c>
-      <c r="J37" s="17">
+      <c r="S37" s="17">
         <v>5132638</v>
       </c>
-      <c r="K37" s="17">
+      <c r="T37" s="17">
         <v>5168192</v>
       </c>
-      <c r="L37" s="17">
+      <c r="U37" s="17">
         <v>6768207</v>
       </c>
-      <c r="M37" s="17">
+      <c r="V37" s="17">
         <v>9813300</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W37" s="17">
+        <v>6288686</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <v>0</v>
+      <c r="D38" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E38" s="11">
         <v>0</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
+      <c r="F38" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
+      <c r="H38" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I38" s="11">
         <v>0</v>
@@ -1903,62 +2863,122 @@
       <c r="M38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="11">
-        <v>0</v>
+      <c r="D40" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E40" s="11">
         <v>0</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
+      <c r="F40" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G40" s="11">
         <v>0</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
+      <c r="H40" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I40" s="11">
         <v>0</v>
@@ -1970,123 +2990,243 @@
         <v>0</v>
       </c>
       <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
         <v>268339</v>
       </c>
-      <c r="M40" s="11">
+      <c r="V40" s="11">
         <v>268339</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W40" s="11">
+        <v>2837880</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="15">
+      <c r="D41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="15">
+        <v>83068</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="15">
+        <v>97987</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="15">
+        <v>103055</v>
+      </c>
+      <c r="J41" s="15">
+        <v>94808</v>
+      </c>
+      <c r="K41" s="15">
+        <v>116882</v>
+      </c>
+      <c r="L41" s="15">
+        <v>84116</v>
+      </c>
+      <c r="M41" s="15">
         <v>129316</v>
       </c>
-      <c r="E41" s="15">
+      <c r="N41" s="15">
         <v>117031</v>
       </c>
-      <c r="F41" s="15">
+      <c r="O41" s="15">
         <v>120715</v>
       </c>
-      <c r="G41" s="15">
+      <c r="P41" s="15">
         <v>90202</v>
       </c>
-      <c r="H41" s="15">
+      <c r="Q41" s="15">
         <v>133775</v>
       </c>
-      <c r="I41" s="15">
+      <c r="R41" s="15">
         <v>144126</v>
       </c>
-      <c r="J41" s="15">
+      <c r="S41" s="15">
         <v>145174</v>
       </c>
-      <c r="K41" s="15">
+      <c r="T41" s="15">
         <v>142731</v>
       </c>
-      <c r="L41" s="15">
+      <c r="U41" s="15">
         <v>214532</v>
       </c>
-      <c r="M41" s="15">
+      <c r="V41" s="15">
         <v>212732</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W41" s="15">
+        <v>358594</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C42" s="19"/>
-      <c r="D42" s="19">
+      <c r="D42" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="19">
+        <v>83068</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="19">
+        <v>97987</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="19">
+        <v>103055</v>
+      </c>
+      <c r="J42" s="19">
+        <v>94808</v>
+      </c>
+      <c r="K42" s="19">
+        <v>116882</v>
+      </c>
+      <c r="L42" s="19">
+        <v>84116</v>
+      </c>
+      <c r="M42" s="19">
         <v>129316</v>
       </c>
-      <c r="E42" s="19">
+      <c r="N42" s="19">
         <v>117031</v>
       </c>
-      <c r="F42" s="19">
+      <c r="O42" s="19">
         <v>120715</v>
       </c>
-      <c r="G42" s="19">
+      <c r="P42" s="19">
         <v>90202</v>
       </c>
-      <c r="H42" s="19">
+      <c r="Q42" s="19">
         <v>133775</v>
       </c>
-      <c r="I42" s="19">
+      <c r="R42" s="19">
         <v>144126</v>
       </c>
-      <c r="J42" s="19">
+      <c r="S42" s="19">
         <v>145174</v>
       </c>
-      <c r="K42" s="19">
+      <c r="T42" s="19">
         <v>142731</v>
       </c>
-      <c r="L42" s="19">
+      <c r="U42" s="19">
         <v>482871</v>
       </c>
-      <c r="M42" s="19">
+      <c r="V42" s="19">
         <v>481071</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W42" s="19">
+        <v>3196474</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="17">
+      <c r="D43" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="17">
+        <v>236726</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="17">
+        <v>391385</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="17">
+        <v>499580</v>
+      </c>
+      <c r="J43" s="17">
+        <v>434610</v>
+      </c>
+      <c r="K43" s="17">
+        <v>735175</v>
+      </c>
+      <c r="L43" s="17">
+        <v>896917</v>
+      </c>
+      <c r="M43" s="17">
         <v>2050086</v>
       </c>
-      <c r="E43" s="17">
+      <c r="N43" s="17">
         <v>2475390</v>
       </c>
-      <c r="F43" s="17">
+      <c r="O43" s="17">
         <v>3574581</v>
       </c>
-      <c r="G43" s="17">
+      <c r="P43" s="17">
         <v>3306820</v>
       </c>
-      <c r="H43" s="17">
+      <c r="Q43" s="17">
         <v>3153826</v>
       </c>
-      <c r="I43" s="17">
+      <c r="R43" s="17">
         <v>3952763</v>
       </c>
-      <c r="J43" s="17">
+      <c r="S43" s="17">
         <v>5277812</v>
       </c>
-      <c r="K43" s="17">
+      <c r="T43" s="17">
         <v>5310923</v>
       </c>
-      <c r="L43" s="17">
+      <c r="U43" s="17">
         <v>7251078</v>
       </c>
-      <c r="M43" s="17">
+      <c r="V43" s="17">
         <v>10294371</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W43" s="17">
+        <v>9485160</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2099,29 +3239,39 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15">
-        <v>700000</v>
+      <c r="D45" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E45" s="15">
-        <v>700000</v>
-      </c>
-      <c r="F45" s="15">
-        <v>700000</v>
+        <v>309166</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G45" s="15">
-        <v>700000</v>
-      </c>
-      <c r="H45" s="15">
-        <v>700000</v>
+        <v>309166</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I45" s="15">
-        <v>700000</v>
+        <v>309166</v>
       </c>
       <c r="J45" s="15">
         <v>700000</v>
@@ -2135,26 +3285,56 @@
       <c r="M45" s="15">
         <v>700000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>700000</v>
+      </c>
+      <c r="O45" s="15">
+        <v>700000</v>
+      </c>
+      <c r="P45" s="15">
+        <v>700000</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>700000</v>
+      </c>
+      <c r="R45" s="15">
+        <v>700000</v>
+      </c>
+      <c r="S45" s="15">
+        <v>700000</v>
+      </c>
+      <c r="T45" s="15">
+        <v>700000</v>
+      </c>
+      <c r="U45" s="15">
+        <v>700000</v>
+      </c>
+      <c r="V45" s="15">
+        <v>700000</v>
+      </c>
+      <c r="W45" s="15">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="11">
-        <v>0</v>
+      <c r="D46" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E46" s="11">
         <v>0</v>
       </c>
-      <c r="F46" s="11">
-        <v>0</v>
+      <c r="F46" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
+      <c r="H46" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I46" s="11">
         <v>0</v>
@@ -2171,29 +3351,59 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="15">
-        <v>0</v>
+      <c r="D47" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E47" s="15">
-        <v>0</v>
-      </c>
-      <c r="F47" s="15">
-        <v>0</v>
+        <v>370781</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
+        <v>370781</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I47" s="15">
-        <v>0</v>
+        <v>390834</v>
       </c>
       <c r="J47" s="15">
         <v>0</v>
@@ -2207,26 +3417,56 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11">
-        <v>0</v>
+      <c r="D48" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E48" s="11">
         <v>0</v>
       </c>
-      <c r="F48" s="11">
-        <v>0</v>
+      <c r="F48" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
       </c>
-      <c r="H48" s="11">
-        <v>0</v>
+      <c r="H48" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I48" s="11">
         <v>0</v>
@@ -2243,26 +3483,56 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
+      <c r="F49" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G49" s="15">
         <v>0</v>
       </c>
-      <c r="H49" s="15">
-        <v>0</v>
+      <c r="H49" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I49" s="15">
         <v>0</v>
@@ -2279,62 +3549,122 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="11">
+      <c r="D50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="11">
+        <v>19083</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="11">
+        <v>19083</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" s="11">
+        <v>30917</v>
+      </c>
+      <c r="J50" s="11">
+        <v>30916</v>
+      </c>
+      <c r="K50" s="11">
+        <v>30916</v>
+      </c>
+      <c r="L50" s="11">
+        <v>30916</v>
+      </c>
+      <c r="M50" s="11">
         <v>51719</v>
       </c>
-      <c r="E50" s="11">
+      <c r="N50" s="11">
         <v>51719</v>
       </c>
-      <c r="F50" s="11">
+      <c r="O50" s="11">
         <v>51719</v>
       </c>
-      <c r="G50" s="11">
+      <c r="P50" s="11">
         <v>51719</v>
       </c>
-      <c r="H50" s="11">
+      <c r="Q50" s="11">
         <v>70000</v>
       </c>
-      <c r="I50" s="11">
+      <c r="R50" s="11">
         <v>70000</v>
       </c>
-      <c r="J50" s="11">
+      <c r="S50" s="11">
         <v>70000</v>
       </c>
-      <c r="K50" s="11">
+      <c r="T50" s="11">
         <v>70000</v>
       </c>
-      <c r="L50" s="11">
+      <c r="U50" s="11">
         <v>70000</v>
       </c>
-      <c r="M50" s="11">
+      <c r="V50" s="11">
         <v>70000</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W50" s="11">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="15">
-        <v>0</v>
+      <c r="D51" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
       </c>
-      <c r="F51" s="15">
-        <v>0</v>
+      <c r="F51" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G51" s="15">
         <v>0</v>
       </c>
-      <c r="H51" s="15">
-        <v>0</v>
+      <c r="H51" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I51" s="15">
         <v>0</v>
@@ -2351,62 +3681,122 @@
       <c r="M51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0</v>
+      </c>
+      <c r="R51" s="15">
+        <v>0</v>
+      </c>
+      <c r="S51" s="15">
+        <v>0</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0</v>
+      </c>
+      <c r="W51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="15">
-        <v>0</v>
+      <c r="D53" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E53" s="15">
         <v>0</v>
       </c>
-      <c r="F53" s="15">
-        <v>0</v>
+      <c r="F53" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G53" s="15">
         <v>0</v>
       </c>
-      <c r="H53" s="15">
-        <v>0</v>
+      <c r="H53" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I53" s="15">
         <v>0</v>
@@ -2423,62 +3813,122 @@
       <c r="M53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>0</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15">
-        <v>0</v>
+      <c r="D55" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E55" s="15">
         <v>0</v>
       </c>
-      <c r="F55" s="15">
-        <v>0</v>
+      <c r="F55" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G55" s="15">
         <v>0</v>
       </c>
-      <c r="H55" s="15">
-        <v>0</v>
+      <c r="H55" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I55" s="15">
         <v>0</v>
@@ -2495,116 +3945,236 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11">
+      <c r="D56" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="11">
+        <v>265578</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="11">
+        <v>147851</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="11">
+        <v>257055</v>
+      </c>
+      <c r="J56" s="11">
+        <v>321505</v>
+      </c>
+      <c r="K56" s="11">
+        <v>235785</v>
+      </c>
+      <c r="L56" s="11">
+        <v>396481</v>
+      </c>
+      <c r="M56" s="11">
         <v>472305</v>
       </c>
-      <c r="E56" s="11">
+      <c r="N56" s="11">
         <v>638820</v>
       </c>
-      <c r="F56" s="11">
+      <c r="O56" s="11">
         <v>632305</v>
       </c>
-      <c r="G56" s="11">
+      <c r="P56" s="11">
         <v>958655</v>
       </c>
-      <c r="H56" s="11">
+      <c r="Q56" s="11">
         <v>885827</v>
       </c>
-      <c r="I56" s="11">
+      <c r="R56" s="11">
         <v>794384</v>
       </c>
-      <c r="J56" s="11">
+      <c r="S56" s="11">
         <v>1217122</v>
       </c>
-      <c r="K56" s="11">
+      <c r="T56" s="11">
         <v>1658176</v>
       </c>
-      <c r="L56" s="11">
+      <c r="U56" s="11">
         <v>1779537</v>
       </c>
-      <c r="M56" s="11">
+      <c r="V56" s="11">
         <v>2466266</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W56" s="11">
+        <v>3316612</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="17">
+      <c r="D57" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="17">
+        <v>964608</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="17">
+        <v>846881</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" s="17">
+        <v>987972</v>
+      </c>
+      <c r="J57" s="17">
+        <v>1052421</v>
+      </c>
+      <c r="K57" s="17">
+        <v>966701</v>
+      </c>
+      <c r="L57" s="17">
+        <v>1127397</v>
+      </c>
+      <c r="M57" s="17">
         <v>1224024</v>
       </c>
-      <c r="E57" s="17">
+      <c r="N57" s="17">
         <v>1390539</v>
       </c>
-      <c r="F57" s="17">
+      <c r="O57" s="17">
         <v>1384024</v>
       </c>
-      <c r="G57" s="17">
+      <c r="P57" s="17">
         <v>1710374</v>
       </c>
-      <c r="H57" s="17">
+      <c r="Q57" s="17">
         <v>1655827</v>
       </c>
-      <c r="I57" s="17">
+      <c r="R57" s="17">
         <v>1564384</v>
       </c>
-      <c r="J57" s="17">
+      <c r="S57" s="17">
         <v>1987122</v>
       </c>
-      <c r="K57" s="17">
+      <c r="T57" s="17">
         <v>2428176</v>
       </c>
-      <c r="L57" s="17">
+      <c r="U57" s="17">
         <v>2549537</v>
       </c>
-      <c r="M57" s="17">
+      <c r="V57" s="17">
         <v>3236266</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W57" s="17">
+        <v>4086612</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C58" s="19"/>
-      <c r="D58" s="19">
+      <c r="D58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="19">
+        <v>1201334</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1238266</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" s="19">
+        <v>1487552</v>
+      </c>
+      <c r="J58" s="19">
+        <v>1487031</v>
+      </c>
+      <c r="K58" s="19">
+        <v>1701876</v>
+      </c>
+      <c r="L58" s="19">
+        <v>2024314</v>
+      </c>
+      <c r="M58" s="19">
         <v>3274110</v>
       </c>
-      <c r="E58" s="19">
+      <c r="N58" s="19">
         <v>3865929</v>
       </c>
-      <c r="F58" s="19">
+      <c r="O58" s="19">
         <v>4958605</v>
       </c>
-      <c r="G58" s="19">
+      <c r="P58" s="19">
         <v>5017194</v>
       </c>
-      <c r="H58" s="19">
+      <c r="Q58" s="19">
         <v>4809653</v>
       </c>
-      <c r="I58" s="19">
+      <c r="R58" s="19">
         <v>5517147</v>
       </c>
-      <c r="J58" s="19">
+      <c r="S58" s="19">
         <v>7264934</v>
       </c>
-      <c r="K58" s="19">
+      <c r="T58" s="19">
         <v>7739099</v>
       </c>
-      <c r="L58" s="19">
+      <c r="U58" s="19">
         <v>9800615</v>
       </c>
-      <c r="M58" s="19">
+      <c r="V58" s="19">
         <v>13530637</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W58" s="19">
+        <v>13571772</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2617,6 +4187,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
